--- a/Config/Excel/Blast.xlsx
+++ b/Config/Excel/Blast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB5B26-0D20-4AC5-84AF-3434D3D0B726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1419C8C2-9F4A-4EC8-9F84-CB55039EA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2235" windowWidth="21690" windowHeight="12525" xr2:uid="{D0E9EBA9-BAA1-4473-9E90-AF16A477E110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0E9EBA9-BAA1-4473-9E90-AF16A477E110}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -70,22 +70,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7ｘ7のブロックを壊す</t>
-    <rPh sb="9" eb="10">
+    <t>Effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/Scene/Blast01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半分爆破爆弾</t>
+    <rPh sb="0" eb="2">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バクハ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/Scene/Blast01</t>
+  </si>
+  <si>
+    <t>7ｘ7ｘ7のブロックを壊す</t>
+    <rPh sb="11" eb="12">
       <t>コワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Effect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Timer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Effect/Scene/Blast01</t>
+    <t>7ｘ４ｘ7のブロックを壊す</t>
+    <rPh sb="11" eb="12">
+      <t>コワ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -154,8 +177,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1E9DAA4-0D9E-4587-BD66-2FC98ED16675}" name="テーブル1" displayName="テーブル1" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{E1E9DAA4-0D9E-4587-BD66-2FC98ED16675}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1E9DAA4-0D9E-4587-BD66-2FC98ED16675}" name="テーブル1" displayName="テーブル1" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{E1E9DAA4-0D9E-4587-BD66-2FC98ED16675}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6F16C1B4-F967-4392-B390-54B5F88EBAA4}" name="ID"/>
     <tableColumn id="2" xr3:uid="{6D8904D5-BE86-4713-9E72-0FCE45D8B35A}" name="Name"/>
@@ -467,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19993906-5016-4AFF-B45C-DEDF9B1BA039}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -501,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -527,13 +550,39 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>9001</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Blast.xlsx
+++ b/Config/Excel/Blast.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1419C8C2-9F4A-4EC8-9F84-CB55039EA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB72F49-F827-4246-A141-4E88B98F0C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0E9EBA9-BAA1-4473-9E90-AF16A477E110}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -108,6 +110,116 @@
     <t>7ｘ４ｘ7のブロックを壊す</t>
     <rPh sb="11" eb="12">
       <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾の設定ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾名</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾ObjectID</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆破時間</t>
+    <rPh sb="0" eb="2">
+      <t>バクハ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾説明</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通爆弾（X,Y,Z全部半径）</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下は壊れない爆弾（Ｘ，Ｚは半径、Ｙは爆弾位置から上だけ半径）</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -116,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,21 +244,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -155,8 +319,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +666,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -593,4 +766,137 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B296E518-4ABD-4447-B1CF-9F0ED646E62D}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF059877-ACB0-4FCD-BCC2-841996A4EA4A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Config/Excel/Blast.xlsx
+++ b/Config/Excel/Blast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB72F49-F827-4246-A141-4E88B98F0C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD166D08-24E9-4C66-A977-261C3D3F485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0E9EBA9-BAA1-4473-9E90-AF16A477E110}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -58,16 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>普通爆弾</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バクダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Des</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -84,34 +74,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半分爆破爆弾</t>
-    <rPh sb="0" eb="2">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バクハ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バクダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Prefabs/Effect/Scene/Blast01</t>
-  </si>
-  <si>
-    <t>7ｘ7ｘ7のブロックを壊す</t>
-    <rPh sb="11" eb="12">
-      <t>コワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7ｘ４ｘ7のブロックを壊す</t>
-    <rPh sb="11" eb="12">
-      <t>コワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>爆弾の設定ファイル</t>
@@ -222,6 +185,24 @@
       <t>ハンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾3・花火</t>
+  </si>
+  <si>
+    <t>爆弾5・花火</t>
+  </si>
+  <si>
+    <t>爆弾10・花火</t>
+  </si>
+  <si>
+    <t>爆弾3</t>
+  </si>
+  <si>
+    <t>爆弾5</t>
+  </si>
+  <si>
+    <t>爆弾10</t>
   </si>
 </sst>
 </file>
@@ -350,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1E9DAA4-0D9E-4587-BD66-2FC98ED16675}" name="テーブル1" displayName="テーブル1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{E1E9DAA4-0D9E-4587-BD66-2FC98ED16675}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1E9DAA4-0D9E-4587-BD66-2FC98ED16675}" name="テーブル1" displayName="テーブル1" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{E1E9DAA4-0D9E-4587-BD66-2FC98ED16675}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6F16C1B4-F967-4392-B390-54B5F88EBAA4}" name="ID"/>
     <tableColumn id="2" xr3:uid="{6D8904D5-BE86-4713-9E72-0FCE45D8B35A}" name="Name"/>
@@ -663,20 +644,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19993906-5016-4AFF-B45C-DEDF9B1BA039}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
     <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -697,13 +679,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -711,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -723,13 +705,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -737,25 +716,114 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>9002</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>9003</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>9001</v>
-      </c>
-      <c r="D3">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>9004</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>9005</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>9006</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +848,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -790,7 +858,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -800,7 +868,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -810,7 +878,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -820,7 +888,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
@@ -830,37 +898,37 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -892,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
